--- a/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComCorePracti" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from MedComCorePracti 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from NullFlavor" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
@@ -7,9 +7,9 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedComCorePracti" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from MedComCorePracti 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from NullFlavor" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
+++ b/ig/terminology/ValueSet-medcom-core-PractitionerRoles.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31</t>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,7 +83,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing codes for practionerroles (Danish: Stillingsbetegnelser) from MedCom</t>
+    <t>ValueSet containing codes for practionerroles (Danish: Stillingsbetegnelser) from MedCom.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -146,6 +146,9 @@
     <t>socialogsundhedsassistent</t>
   </si>
   <si>
+    <t>socialogsundhedsmedhjaelper</t>
+  </si>
+  <si>
     <t>socialogsundhedsmehjaelper</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>apoteker</t>
   </si>
   <si>
+    <t>psykolog</t>
+  </si>
+  <si>
     <t>pyskolog</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
   </si>
   <si>
     <t>ledendelaegesekretaer</t>
+  </si>
+  <si>
+    <t>sygeplejesekretaer</t>
   </si>
   <si>
     <t>sygeplejesekretear</t>
@@ -583,7 +592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -867,18 +876,36 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>31</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>78</v>
+      <c r="B50" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +935,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -925,7 +952,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
